--- a/data/pca/factorExposure/factorExposure_2011-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02125999180742855</v>
+        <v>-0.01725606782503595</v>
       </c>
       <c r="C2">
-        <v>-0.01065023984400285</v>
+        <v>-0.0004832078560610475</v>
       </c>
       <c r="D2">
-        <v>-0.05746348374578709</v>
+        <v>0.007451353683294919</v>
       </c>
       <c r="E2">
-        <v>0.0320153466959895</v>
+        <v>0.0402058220885524</v>
       </c>
       <c r="F2">
-        <v>0.04103155791746842</v>
+        <v>-0.004208759550070502</v>
       </c>
       <c r="G2">
-        <v>0.02133383389168467</v>
+        <v>-0.03084486059272169</v>
       </c>
       <c r="H2">
-        <v>-0.02103383822572331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.0005589916712288978</v>
+      </c>
+      <c r="I2">
+        <v>-0.03406207628819934</v>
+      </c>
+      <c r="J2">
+        <v>-0.03348665116955631</v>
+      </c>
+      <c r="K2">
+        <v>0.04075020854031808</v>
+      </c>
+      <c r="L2">
+        <v>-0.04867146251621762</v>
+      </c>
+      <c r="M2">
+        <v>-0.001049892890772029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07762421382934456</v>
+        <v>-0.1068476788096868</v>
       </c>
       <c r="C4">
-        <v>0.05174674257505871</v>
+        <v>0.07896000165773907</v>
       </c>
       <c r="D4">
-        <v>-0.03576096839680127</v>
+        <v>0.01856239813372693</v>
       </c>
       <c r="E4">
-        <v>0.04755929049151496</v>
+        <v>0.05004215117575489</v>
       </c>
       <c r="F4">
-        <v>-0.003939102434208124</v>
+        <v>0.1234413584519292</v>
       </c>
       <c r="G4">
-        <v>0.01591603886522091</v>
+        <v>0.01643007368173792</v>
       </c>
       <c r="H4">
-        <v>0.005085565788247864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.04918169298853638</v>
+      </c>
+      <c r="I4">
+        <v>-0.01305262460722634</v>
+      </c>
+      <c r="J4">
+        <v>0.07944777532804581</v>
+      </c>
+      <c r="K4">
+        <v>0.00520116610123759</v>
+      </c>
+      <c r="L4">
+        <v>0.07289475132763681</v>
+      </c>
+      <c r="M4">
+        <v>-0.03333175949860194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1280087193806747</v>
+        <v>-0.1322253442157779</v>
       </c>
       <c r="C6">
-        <v>0.02868273959948034</v>
+        <v>0.05684587553347773</v>
       </c>
       <c r="D6">
-        <v>-0.05828993810098316</v>
+        <v>0.007014534860727414</v>
       </c>
       <c r="E6">
-        <v>0.07426542934365188</v>
+        <v>0.01762759290398169</v>
       </c>
       <c r="F6">
-        <v>-0.07060177564289476</v>
+        <v>0.04667548379871343</v>
       </c>
       <c r="G6">
-        <v>-0.09844115623578738</v>
+        <v>0.1691208192348206</v>
       </c>
       <c r="H6">
-        <v>0.3052112335632564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.1300632132184999</v>
+      </c>
+      <c r="I6">
+        <v>-0.130975241538506</v>
+      </c>
+      <c r="J6">
+        <v>0.3631606549329837</v>
+      </c>
+      <c r="K6">
+        <v>-0.1553778234738365</v>
+      </c>
+      <c r="L6">
+        <v>-0.122040592851613</v>
+      </c>
+      <c r="M6">
+        <v>-0.04078484231830747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07378116339634413</v>
+        <v>-0.0754861834988112</v>
       </c>
       <c r="C7">
-        <v>0.05775981560373954</v>
+        <v>0.07214312323103662</v>
       </c>
       <c r="D7">
-        <v>-0.05509121326866604</v>
+        <v>0.009607587517482325</v>
       </c>
       <c r="E7">
-        <v>0.04007712145085381</v>
+        <v>0.04870740882373208</v>
       </c>
       <c r="F7">
-        <v>-0.03140870495797676</v>
+        <v>0.01772919403401109</v>
       </c>
       <c r="G7">
-        <v>-0.001306964065269884</v>
+        <v>-0.002251751753146725</v>
       </c>
       <c r="H7">
-        <v>-0.01668149498175927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.04344806993535245</v>
+      </c>
+      <c r="I7">
+        <v>0.04929878464675672</v>
+      </c>
+      <c r="J7">
+        <v>0.00385899484969371</v>
+      </c>
+      <c r="K7">
+        <v>0.01317723544158671</v>
+      </c>
+      <c r="L7">
+        <v>0.08550600499309197</v>
+      </c>
+      <c r="M7">
+        <v>0.02541457359048896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02924582767632921</v>
+        <v>-0.03790777008149188</v>
       </c>
       <c r="C8">
-        <v>0.01007865792645719</v>
+        <v>0.01327549774920533</v>
       </c>
       <c r="D8">
-        <v>-0.04417026693781216</v>
+        <v>0.0149033841355988</v>
       </c>
       <c r="E8">
-        <v>0.05978786262569858</v>
+        <v>0.05010107856141809</v>
       </c>
       <c r="F8">
-        <v>0.04776586979863059</v>
+        <v>0.101970779571879</v>
       </c>
       <c r="G8">
-        <v>-0.04419356986760428</v>
+        <v>0.007912326642141363</v>
       </c>
       <c r="H8">
-        <v>-0.03256000154678234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.02845748430109302</v>
+      </c>
+      <c r="I8">
+        <v>-0.02809955055066375</v>
+      </c>
+      <c r="J8">
+        <v>0.05999829076993111</v>
+      </c>
+      <c r="K8">
+        <v>0.02864344497920661</v>
+      </c>
+      <c r="L8">
+        <v>0.05070859254212919</v>
+      </c>
+      <c r="M8">
+        <v>-0.03507488872063763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07478157269595072</v>
+        <v>-0.08290535798046886</v>
       </c>
       <c r="C9">
-        <v>0.06579187138033089</v>
+        <v>0.07200315015524324</v>
       </c>
       <c r="D9">
-        <v>-0.03972119392113921</v>
+        <v>-0.003282910153177548</v>
       </c>
       <c r="E9">
-        <v>0.03947974843735293</v>
+        <v>0.0340845658866426</v>
       </c>
       <c r="F9">
-        <v>0.01329958947592384</v>
+        <v>0.1175987665652344</v>
       </c>
       <c r="G9">
-        <v>0.01620578530678975</v>
+        <v>0.01195922704301682</v>
       </c>
       <c r="H9">
-        <v>0.001286818623662389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.04520606988090291</v>
+      </c>
+      <c r="I9">
+        <v>0.009943885139578675</v>
+      </c>
+      <c r="J9">
+        <v>0.05481119811253093</v>
+      </c>
+      <c r="K9">
+        <v>0.01366578362571308</v>
+      </c>
+      <c r="L9">
+        <v>0.03519062826496135</v>
+      </c>
+      <c r="M9">
+        <v>0.01146560210630607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06183414132189809</v>
+        <v>-0.1130549986663204</v>
       </c>
       <c r="C10">
-        <v>-0.1365403318082538</v>
+        <v>-0.1674271491397581</v>
       </c>
       <c r="D10">
-        <v>-0.05421864020612305</v>
+        <v>0.003435744306220511</v>
       </c>
       <c r="E10">
-        <v>0.03399145948373775</v>
+        <v>0.05167827504973922</v>
       </c>
       <c r="F10">
-        <v>-0.0358074526652521</v>
+        <v>-0.01022005728360852</v>
       </c>
       <c r="G10">
-        <v>-0.0287636828273562</v>
+        <v>0.01029984989200761</v>
       </c>
       <c r="H10">
-        <v>0.03206793735773497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.008913524910376133</v>
+      </c>
+      <c r="I10">
+        <v>0.05134052859870745</v>
+      </c>
+      <c r="J10">
+        <v>-0.03492116135044916</v>
+      </c>
+      <c r="K10">
+        <v>-0.01303096840880672</v>
+      </c>
+      <c r="L10">
+        <v>0.001686654790467987</v>
+      </c>
+      <c r="M10">
+        <v>0.1075589377887209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.07004747070106895</v>
+        <v>-0.06795546457390066</v>
       </c>
       <c r="C11">
-        <v>0.0866638744731088</v>
+        <v>0.07304263189584773</v>
       </c>
       <c r="D11">
-        <v>-0.03828093732079737</v>
+        <v>-0.03276557505667757</v>
       </c>
       <c r="E11">
-        <v>0.01134425782537924</v>
+        <v>0.01875294270709384</v>
       </c>
       <c r="F11">
-        <v>0.06100672423296832</v>
+        <v>0.1089355991326293</v>
       </c>
       <c r="G11">
-        <v>6.903084468975992e-05</v>
+        <v>-0.01220896963995965</v>
       </c>
       <c r="H11">
-        <v>-0.05938347649892561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.02614387060347005</v>
+      </c>
+      <c r="I11">
+        <v>0.06654052213696987</v>
+      </c>
+      <c r="J11">
+        <v>-0.03883277590309835</v>
+      </c>
+      <c r="K11">
+        <v>0.07258031017988263</v>
+      </c>
+      <c r="L11">
+        <v>-0.0122274692298467</v>
+      </c>
+      <c r="M11">
+        <v>0.09436184520826041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06743774333281775</v>
+        <v>-0.07132262906296195</v>
       </c>
       <c r="C12">
-        <v>0.05557258975450944</v>
+        <v>0.06467598513246034</v>
       </c>
       <c r="D12">
-        <v>-0.02344670548928456</v>
+        <v>-0.0307726871130106</v>
       </c>
       <c r="E12">
-        <v>0.02679470607126611</v>
+        <v>0.007936625293603781</v>
       </c>
       <c r="F12">
-        <v>0.006951510826859922</v>
+        <v>0.1176579463137891</v>
       </c>
       <c r="G12">
-        <v>-0.005108380111833223</v>
+        <v>-0.01733245072399768</v>
       </c>
       <c r="H12">
-        <v>-0.05394312506448491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.01348448857483723</v>
+      </c>
+      <c r="I12">
+        <v>0.05724835367088407</v>
+      </c>
+      <c r="J12">
+        <v>-0.01173398864005857</v>
+      </c>
+      <c r="K12">
+        <v>0.09353752002445397</v>
+      </c>
+      <c r="L12">
+        <v>0.01219413995090686</v>
+      </c>
+      <c r="M12">
+        <v>0.121729484173079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05330211848085294</v>
+        <v>-0.046456876643414</v>
       </c>
       <c r="C13">
-        <v>0.01206132350972284</v>
+        <v>0.0298071595147695</v>
       </c>
       <c r="D13">
-        <v>-0.001301514590018724</v>
+        <v>0.02320556125452868</v>
       </c>
       <c r="E13">
-        <v>0.0203887871922966</v>
+        <v>0.01257702930848409</v>
       </c>
       <c r="F13">
-        <v>0.03165128979533455</v>
+        <v>0.04190013543847867</v>
       </c>
       <c r="G13">
-        <v>0.03884089148617638</v>
+        <v>-0.0158258531013909</v>
       </c>
       <c r="H13">
-        <v>-0.00771291219570209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03601665277647324</v>
+      </c>
+      <c r="I13">
+        <v>-0.004039011725305859</v>
+      </c>
+      <c r="J13">
+        <v>0.02162863052818148</v>
+      </c>
+      <c r="K13">
+        <v>0.00122331576821438</v>
+      </c>
+      <c r="L13">
+        <v>0.0656395353461806</v>
+      </c>
+      <c r="M13">
+        <v>-0.02377933644279731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04814674559219732</v>
+        <v>-0.04281878357044128</v>
       </c>
       <c r="C14">
-        <v>0.02217992882408929</v>
+        <v>0.03011579809732515</v>
       </c>
       <c r="D14">
-        <v>-0.02010365513807654</v>
+        <v>-0.01133984166937071</v>
       </c>
       <c r="E14">
-        <v>0.003484832273828428</v>
+        <v>0.01675923470129658</v>
       </c>
       <c r="F14">
-        <v>-0.01049942333360255</v>
+        <v>0.06071532468852438</v>
       </c>
       <c r="G14">
-        <v>-0.006571692779064038</v>
+        <v>-0.01657661619923233</v>
       </c>
       <c r="H14">
-        <v>0.06986851614150294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.06650593513970252</v>
+      </c>
+      <c r="I14">
+        <v>-0.005353645486114111</v>
+      </c>
+      <c r="J14">
+        <v>0.04992013920937048</v>
+      </c>
+      <c r="K14">
+        <v>-0.04183144638553096</v>
+      </c>
+      <c r="L14">
+        <v>0.04300548512489298</v>
+      </c>
+      <c r="M14">
+        <v>-0.02362277889682968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.04033833935035748</v>
+        <v>-0.02978093640204033</v>
       </c>
       <c r="C15">
-        <v>-0.008380002836103797</v>
+        <v>0.00872069141368461</v>
       </c>
       <c r="D15">
-        <v>0.003586764782147317</v>
+        <v>0.05812404693996762</v>
       </c>
       <c r="E15">
-        <v>0.02322593636423684</v>
+        <v>0.005167025003738006</v>
       </c>
       <c r="F15">
-        <v>-0.01238016154594858</v>
+        <v>0.01019313586708332</v>
       </c>
       <c r="G15">
-        <v>0.01654759091808374</v>
+        <v>0.03989278713342547</v>
       </c>
       <c r="H15">
-        <v>0.01068429113575583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04072300083944216</v>
+      </c>
+      <c r="I15">
+        <v>-0.02851952242265688</v>
+      </c>
+      <c r="J15">
+        <v>0.02672527230574914</v>
+      </c>
+      <c r="K15">
+        <v>-0.04322615368045334</v>
+      </c>
+      <c r="L15">
+        <v>0.0472359598837493</v>
+      </c>
+      <c r="M15">
+        <v>0.01567289711649527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05817248928799985</v>
+        <v>-0.07233310560129877</v>
       </c>
       <c r="C16">
-        <v>0.0827607910516388</v>
+        <v>0.07955716740510624</v>
       </c>
       <c r="D16">
-        <v>-0.03211976747794758</v>
+        <v>-0.02179004239747423</v>
       </c>
       <c r="E16">
-        <v>0.03424196229289152</v>
+        <v>0.01806006866551769</v>
       </c>
       <c r="F16">
-        <v>0.03764621473853857</v>
+        <v>0.1075625973336246</v>
       </c>
       <c r="G16">
-        <v>0.01917259100009147</v>
+        <v>-0.02485635439265345</v>
       </c>
       <c r="H16">
-        <v>-0.05792789660990114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.02619684662477793</v>
+      </c>
+      <c r="I16">
+        <v>0.06401221512032824</v>
+      </c>
+      <c r="J16">
+        <v>-0.01633767901841941</v>
+      </c>
+      <c r="K16">
+        <v>0.08404241585558669</v>
+      </c>
+      <c r="L16">
+        <v>0.01270263252063804</v>
+      </c>
+      <c r="M16">
+        <v>0.08362494921297535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04434210690253229</v>
+        <v>-0.04535707822116283</v>
       </c>
       <c r="C20">
-        <v>0.0432993267790668</v>
+        <v>0.03169014570378686</v>
       </c>
       <c r="D20">
-        <v>-0.01082165358059425</v>
+        <v>0.02443782230558211</v>
       </c>
       <c r="E20">
-        <v>0.01527633583365691</v>
+        <v>0.01820616385883552</v>
       </c>
       <c r="F20">
-        <v>0.01477930746866799</v>
+        <v>0.0594995346014014</v>
       </c>
       <c r="G20">
-        <v>0.02818345036648401</v>
+        <v>-0.01791777161526127</v>
       </c>
       <c r="H20">
-        <v>-0.01124052002177674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.02713176561152328</v>
+      </c>
+      <c r="I20">
+        <v>0.02946976645217219</v>
+      </c>
+      <c r="J20">
+        <v>0.0574950666046349</v>
+      </c>
+      <c r="K20">
+        <v>0.01129257576727264</v>
+      </c>
+      <c r="L20">
+        <v>0.05648652325070241</v>
+      </c>
+      <c r="M20">
+        <v>0.03145912137855235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01904967541897588</v>
+        <v>-0.03044422095209897</v>
       </c>
       <c r="C21">
-        <v>0.02534359150791539</v>
+        <v>0.02336925000178939</v>
       </c>
       <c r="D21">
-        <v>-0.009730710667506616</v>
+        <v>0.003940234041959435</v>
       </c>
       <c r="E21">
-        <v>0.06723687394594417</v>
+        <v>0.02620826383344791</v>
       </c>
       <c r="F21">
-        <v>-0.05802028967103443</v>
+        <v>0.07024367357100135</v>
       </c>
       <c r="G21">
-        <v>-0.07451639367239021</v>
+        <v>0.08861051637158969</v>
       </c>
       <c r="H21">
-        <v>0.02623119514874994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.00246691319408459</v>
+      </c>
+      <c r="I21">
+        <v>0.07216677943432631</v>
+      </c>
+      <c r="J21">
+        <v>0.02770112873022339</v>
+      </c>
+      <c r="K21">
+        <v>-0.04112209509557418</v>
+      </c>
+      <c r="L21">
+        <v>0.09936972933807493</v>
+      </c>
+      <c r="M21">
+        <v>-0.00683273829895322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02025698358931449</v>
+        <v>-0.04343100153948355</v>
       </c>
       <c r="C22">
-        <v>0.05115869352712789</v>
+        <v>0.01616048352712565</v>
       </c>
       <c r="D22">
-        <v>0.1220932294812316</v>
+        <v>0.6575349215833475</v>
       </c>
       <c r="E22">
-        <v>0.4820009817878121</v>
+        <v>0.05062979618156935</v>
       </c>
       <c r="F22">
-        <v>-0.1816423822358043</v>
+        <v>-0.06826796029087615</v>
       </c>
       <c r="G22">
-        <v>0.2543734078079278</v>
+        <v>-0.07523480636956996</v>
       </c>
       <c r="H22">
-        <v>-0.1359144483012196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.07361913719291496</v>
+      </c>
+      <c r="I22">
+        <v>0.117792555711841</v>
+      </c>
+      <c r="J22">
+        <v>-0.01484934948305008</v>
+      </c>
+      <c r="K22">
+        <v>-0.01472975609803396</v>
+      </c>
+      <c r="L22">
+        <v>-0.02393643980241193</v>
+      </c>
+      <c r="M22">
+        <v>-0.0252228634916253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01913835774178284</v>
+        <v>-0.04365074744918493</v>
       </c>
       <c r="C23">
-        <v>0.04961261953412922</v>
+        <v>0.01640190216821523</v>
       </c>
       <c r="D23">
-        <v>0.1230122001492773</v>
+        <v>0.6590841228812049</v>
       </c>
       <c r="E23">
-        <v>0.4810006185135121</v>
+        <v>0.05121676709115894</v>
       </c>
       <c r="F23">
-        <v>-0.1811798083327367</v>
+        <v>-0.06487985515069375</v>
       </c>
       <c r="G23">
-        <v>0.2529508553749546</v>
+        <v>-0.07625713041418186</v>
       </c>
       <c r="H23">
-        <v>-0.1334870870879669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.07451936495051567</v>
+      </c>
+      <c r="I23">
+        <v>0.1152872667447192</v>
+      </c>
+      <c r="J23">
+        <v>-0.01287351568713887</v>
+      </c>
+      <c r="K23">
+        <v>-0.01471017482410156</v>
+      </c>
+      <c r="L23">
+        <v>-0.02701907193159686</v>
+      </c>
+      <c r="M23">
+        <v>-0.02709996380045382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07451556284205237</v>
+        <v>-0.07654411903547927</v>
       </c>
       <c r="C24">
-        <v>0.07681649067511954</v>
+        <v>0.0758443798587384</v>
       </c>
       <c r="D24">
-        <v>-0.04008632919216865</v>
+        <v>-0.01752420622827617</v>
       </c>
       <c r="E24">
-        <v>0.04250793211074239</v>
+        <v>0.02048905082363885</v>
       </c>
       <c r="F24">
-        <v>0.03699643092593253</v>
+        <v>0.1098516151022503</v>
       </c>
       <c r="G24">
-        <v>0.0006651986500652291</v>
+        <v>-0.01309225942170447</v>
       </c>
       <c r="H24">
-        <v>-0.04078054287584437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.01311000206154875</v>
+      </c>
+      <c r="I24">
+        <v>0.06086918871101209</v>
+      </c>
+      <c r="J24">
+        <v>-0.0173998815874528</v>
+      </c>
+      <c r="K24">
+        <v>0.07416069665222037</v>
+      </c>
+      <c r="L24">
+        <v>-0.01531497430606458</v>
+      </c>
+      <c r="M24">
+        <v>0.08820961852567064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06905725361612573</v>
+        <v>-0.07458119348504159</v>
       </c>
       <c r="C25">
-        <v>0.04041572097497178</v>
+        <v>0.05133330949030733</v>
       </c>
       <c r="D25">
-        <v>-0.03441014633327098</v>
+        <v>-0.0335277141033074</v>
       </c>
       <c r="E25">
-        <v>0.04984098225543073</v>
+        <v>0.01723741898062185</v>
       </c>
       <c r="F25">
-        <v>0.04956743658901966</v>
+        <v>0.1174319627221742</v>
       </c>
       <c r="G25">
-        <v>0.008602462329650638</v>
+        <v>-0.02923459918392285</v>
       </c>
       <c r="H25">
-        <v>-0.01014994185946331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.03015815573015169</v>
+      </c>
+      <c r="I25">
+        <v>0.06022904478670622</v>
+      </c>
+      <c r="J25">
+        <v>-0.01205974147053158</v>
+      </c>
+      <c r="K25">
+        <v>0.08626892127542539</v>
+      </c>
+      <c r="L25">
+        <v>-0.03350101627974023</v>
+      </c>
+      <c r="M25">
+        <v>0.09577308000134373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04367498432607494</v>
+        <v>-0.04304147780202337</v>
       </c>
       <c r="C26">
-        <v>0.03423571331472994</v>
+        <v>0.02313432555469702</v>
       </c>
       <c r="D26">
-        <v>-0.04131195620521894</v>
+        <v>0.01314284371937263</v>
       </c>
       <c r="E26">
-        <v>0.000192614289222696</v>
+        <v>0.002143600261552228</v>
       </c>
       <c r="F26">
-        <v>-0.01567003592464581</v>
+        <v>0.03466009269081952</v>
       </c>
       <c r="G26">
-        <v>0.03713905234254728</v>
+        <v>-0.007422277082658655</v>
       </c>
       <c r="H26">
-        <v>-0.007424885472772734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.03642070155536624</v>
+      </c>
+      <c r="I26">
+        <v>0.03507078487717279</v>
+      </c>
+      <c r="J26">
+        <v>0.02366095805559899</v>
+      </c>
+      <c r="K26">
+        <v>-0.07891347388973578</v>
+      </c>
+      <c r="L26">
+        <v>0.1353458748567467</v>
+      </c>
+      <c r="M26">
+        <v>0.0009309878237656182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1100532909706796</v>
+        <v>-0.1437328224356684</v>
       </c>
       <c r="C28">
-        <v>-0.2995920017753559</v>
+        <v>-0.2860205793667975</v>
       </c>
       <c r="D28">
-        <v>-0.02158932598255748</v>
+        <v>-0.01368341700493153</v>
       </c>
       <c r="E28">
-        <v>-0.01812104579964845</v>
+        <v>0.02568853610384762</v>
       </c>
       <c r="F28">
-        <v>-0.05644655340485039</v>
+        <v>-0.004130362952150559</v>
       </c>
       <c r="G28">
-        <v>-0.009857542000543514</v>
+        <v>0.007691468664701328</v>
       </c>
       <c r="H28">
-        <v>-0.05496641984570436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01062834395695601</v>
+      </c>
+      <c r="I28">
+        <v>0.002142924684525304</v>
+      </c>
+      <c r="J28">
+        <v>0.01241918650044599</v>
+      </c>
+      <c r="K28">
+        <v>0.007896552820422372</v>
+      </c>
+      <c r="L28">
+        <v>0.04569334096020184</v>
+      </c>
+      <c r="M28">
+        <v>-0.02658148063878652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05356273164043072</v>
+        <v>-0.04419299988750958</v>
       </c>
       <c r="C29">
-        <v>0.01995331484600326</v>
+        <v>0.02879748045080274</v>
       </c>
       <c r="D29">
-        <v>-0.008195412632651396</v>
+        <v>-0.002803322989364174</v>
       </c>
       <c r="E29">
-        <v>0.02506391180259904</v>
+        <v>0.01892217318367068</v>
       </c>
       <c r="F29">
-        <v>-0.007846281251207329</v>
+        <v>0.06042773658341671</v>
       </c>
       <c r="G29">
-        <v>0.01110703566304691</v>
+        <v>-0.03159575452245475</v>
       </c>
       <c r="H29">
-        <v>0.02161796749136971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.04932161603872412</v>
+      </c>
+      <c r="I29">
+        <v>0.006551012515928962</v>
+      </c>
+      <c r="J29">
+        <v>0.04462552871979837</v>
+      </c>
+      <c r="K29">
+        <v>-0.03580316077794189</v>
+      </c>
+      <c r="L29">
+        <v>0.03755444317302627</v>
+      </c>
+      <c r="M29">
+        <v>-0.005806340993177969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1312350554542361</v>
+        <v>-0.09821997380466574</v>
       </c>
       <c r="C30">
-        <v>0.05322003864150123</v>
+        <v>0.06541973904495393</v>
       </c>
       <c r="D30">
-        <v>-0.07154190351631434</v>
+        <v>0.003397672577813411</v>
       </c>
       <c r="E30">
-        <v>0.09027354464714801</v>
+        <v>0.02674338375497682</v>
       </c>
       <c r="F30">
-        <v>-0.009706460509737785</v>
+        <v>0.1805103644878669</v>
       </c>
       <c r="G30">
-        <v>-0.01232123304972708</v>
+        <v>-0.05060922761739557</v>
       </c>
       <c r="H30">
-        <v>-0.05109517063796471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.05484519044873471</v>
+      </c>
+      <c r="I30">
+        <v>0.2207983929541998</v>
+      </c>
+      <c r="J30">
+        <v>0.2058489522770951</v>
+      </c>
+      <c r="K30">
+        <v>0.06619486404571306</v>
+      </c>
+      <c r="L30">
+        <v>0.1610037612263002</v>
+      </c>
+      <c r="M30">
+        <v>-0.3107537661372743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.05066991608659404</v>
+        <v>-0.03539628274351107</v>
       </c>
       <c r="C31">
-        <v>0.02653417658359993</v>
+        <v>0.0466926030894051</v>
       </c>
       <c r="D31">
-        <v>0.00721150121620034</v>
+        <v>0.005568756368333632</v>
       </c>
       <c r="E31">
-        <v>-0.00869069169387174</v>
+        <v>-0.008571462318938867</v>
       </c>
       <c r="F31">
-        <v>-0.01776354569450161</v>
+        <v>0.01916566036440972</v>
       </c>
       <c r="G31">
-        <v>0.04535271067964401</v>
+        <v>-0.02316799680761076</v>
       </c>
       <c r="H31">
-        <v>0.003198570725511274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04932363019268168</v>
+      </c>
+      <c r="I31">
+        <v>-0.02264350112312284</v>
+      </c>
+      <c r="J31">
+        <v>0.02118095267722621</v>
+      </c>
+      <c r="K31">
+        <v>0.009450562668892428</v>
+      </c>
+      <c r="L31">
+        <v>0.0159017895530888</v>
+      </c>
+      <c r="M31">
+        <v>0.004612339867540098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02083735121716771</v>
+        <v>-0.04158510520550951</v>
       </c>
       <c r="C32">
-        <v>-0.01938031663396244</v>
+        <v>-0.004371715622241141</v>
       </c>
       <c r="D32">
-        <v>0.02272725425796524</v>
+        <v>-0.01057131895490152</v>
       </c>
       <c r="E32">
-        <v>0.08881281564915494</v>
+        <v>0.006206713998237482</v>
       </c>
       <c r="F32">
-        <v>0.0554640847437213</v>
+        <v>0.08851367548795946</v>
       </c>
       <c r="G32">
-        <v>0.03156491048146777</v>
+        <v>0.02353205055874335</v>
       </c>
       <c r="H32">
-        <v>-0.05564587439331765</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.06931530079635943</v>
+      </c>
+      <c r="I32">
+        <v>-0.04731007734035624</v>
+      </c>
+      <c r="J32">
+        <v>-0.05353037813195569</v>
+      </c>
+      <c r="K32">
+        <v>0.01148510758560248</v>
+      </c>
+      <c r="L32">
+        <v>0.04910396216614246</v>
+      </c>
+      <c r="M32">
+        <v>-0.1523529983280224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1008968108074372</v>
+        <v>-0.09908863977851462</v>
       </c>
       <c r="C33">
-        <v>0.04286887974258714</v>
+        <v>0.06686016235031793</v>
       </c>
       <c r="D33">
-        <v>-0.001090941649527957</v>
+        <v>-0.009332683449520521</v>
       </c>
       <c r="E33">
-        <v>0.007937918592516873</v>
+        <v>-0.0140606777625141</v>
       </c>
       <c r="F33">
-        <v>0.03119760678817555</v>
+        <v>0.0694548632169294</v>
       </c>
       <c r="G33">
-        <v>0.04219053267648921</v>
+        <v>-0.02212261044680701</v>
       </c>
       <c r="H33">
-        <v>-0.01327966247052688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.04779265833248519</v>
+      </c>
+      <c r="I33">
+        <v>0.03829616657185303</v>
+      </c>
+      <c r="J33">
+        <v>0.03300180111261244</v>
+      </c>
+      <c r="K33">
+        <v>-0.0349674097956499</v>
+      </c>
+      <c r="L33">
+        <v>0.004100370741599767</v>
+      </c>
+      <c r="M33">
+        <v>0.008276345948808826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05604356075329741</v>
+        <v>-0.0632040234423613</v>
       </c>
       <c r="C34">
-        <v>0.0810577302021266</v>
+        <v>0.06332361801690306</v>
       </c>
       <c r="D34">
-        <v>-0.0239345550529897</v>
+        <v>-0.02579415477218304</v>
       </c>
       <c r="E34">
-        <v>0.03750999233465118</v>
+        <v>0.0146534188309548</v>
       </c>
       <c r="F34">
-        <v>0.0302132391130158</v>
+        <v>0.09685095942528645</v>
       </c>
       <c r="G34">
-        <v>-0.003190517481664435</v>
+        <v>-0.01266302084558785</v>
       </c>
       <c r="H34">
-        <v>-0.02594653335163426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03387613057134289</v>
+      </c>
+      <c r="I34">
+        <v>0.04745505424387007</v>
+      </c>
+      <c r="J34">
+        <v>-0.009613478692346021</v>
+      </c>
+      <c r="K34">
+        <v>0.05646010433749497</v>
+      </c>
+      <c r="L34">
+        <v>-0.01201803188464482</v>
+      </c>
+      <c r="M34">
+        <v>0.1153715134763417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04283464661661425</v>
+        <v>-0.02630304521978605</v>
       </c>
       <c r="C35">
-        <v>0.03710167651948124</v>
+        <v>0.02717181209060772</v>
       </c>
       <c r="D35">
-        <v>-0.00763066839039934</v>
+        <v>-0.001018401758198569</v>
       </c>
       <c r="E35">
-        <v>0.01267749673051122</v>
+        <v>-0.002212753199716363</v>
       </c>
       <c r="F35">
-        <v>0.008450606403044306</v>
+        <v>0.0280858738653176</v>
       </c>
       <c r="G35">
-        <v>0.01037654137457746</v>
+        <v>-0.01431187791376006</v>
       </c>
       <c r="H35">
-        <v>-0.01098627079654571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.02769599691108323</v>
+      </c>
+      <c r="I35">
+        <v>0.04705538901880776</v>
+      </c>
+      <c r="J35">
+        <v>0.01479867941909492</v>
+      </c>
+      <c r="K35">
+        <v>0.02293034142337278</v>
+      </c>
+      <c r="L35">
+        <v>0.06240363791078538</v>
+      </c>
+      <c r="M35">
+        <v>-0.0003123408248377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03583364021021617</v>
+        <v>-0.03004630141666448</v>
       </c>
       <c r="C36">
-        <v>0.02093522881811953</v>
+        <v>0.02132847307954701</v>
       </c>
       <c r="D36">
-        <v>-0.0296625913815011</v>
+        <v>0.01380124749209836</v>
       </c>
       <c r="E36">
-        <v>0.02956144564501014</v>
+        <v>0.01408752133348033</v>
       </c>
       <c r="F36">
-        <v>0.0105993901849306</v>
+        <v>0.06391461168476678</v>
       </c>
       <c r="G36">
-        <v>0.03064951828153881</v>
+        <v>-0.008164271891171328</v>
       </c>
       <c r="H36">
-        <v>0.017105844719421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.03006298751197419</v>
+      </c>
+      <c r="I36">
+        <v>0.02358263684848654</v>
+      </c>
+      <c r="J36">
+        <v>0.04739130769409359</v>
+      </c>
+      <c r="K36">
+        <v>-0.01901307322665161</v>
+      </c>
+      <c r="L36">
+        <v>0.03600754753075056</v>
+      </c>
+      <c r="M36">
+        <v>0.03498657713387605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04075576319815413</v>
+        <v>-0.02987262058180593</v>
       </c>
       <c r="C38">
-        <v>0.03329322289333964</v>
+        <v>0.04794306522468132</v>
       </c>
       <c r="D38">
-        <v>0.02385153440094305</v>
+        <v>0.02568682480137534</v>
       </c>
       <c r="E38">
-        <v>0.03757662321392481</v>
+        <v>0.002726866078259546</v>
       </c>
       <c r="F38">
-        <v>0.007229725995770338</v>
+        <v>-0.04329770269157313</v>
       </c>
       <c r="G38">
-        <v>0.0144745327909941</v>
+        <v>-0.05226097038109584</v>
       </c>
       <c r="H38">
-        <v>-0.04262543240327897</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.02176466748279363</v>
+      </c>
+      <c r="I38">
+        <v>0.0362939160371162</v>
+      </c>
+      <c r="J38">
+        <v>-0.03729994927381987</v>
+      </c>
+      <c r="K38">
+        <v>-0.106851680314921</v>
+      </c>
+      <c r="L38">
+        <v>0.06171039162003984</v>
+      </c>
+      <c r="M38">
+        <v>-0.1184605913970395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09827473293862581</v>
+        <v>-0.0987368648416343</v>
       </c>
       <c r="C39">
-        <v>0.0986819018036337</v>
+        <v>0.09308787224878445</v>
       </c>
       <c r="D39">
-        <v>-0.01873562923888278</v>
+        <v>-0.08403796072619571</v>
       </c>
       <c r="E39">
-        <v>0.03596126465141891</v>
+        <v>-0.01366176487972939</v>
       </c>
       <c r="F39">
-        <v>0.04484410028145478</v>
+        <v>0.1479426262112565</v>
       </c>
       <c r="G39">
-        <v>-0.02696241417411116</v>
+        <v>-0.09206058333050879</v>
       </c>
       <c r="H39">
-        <v>-0.1235607507502536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.02814777892562115</v>
+      </c>
+      <c r="I39">
+        <v>0.1361454983176585</v>
+      </c>
+      <c r="J39">
+        <v>-0.02803281703114388</v>
+      </c>
+      <c r="K39">
+        <v>0.2068225599993204</v>
+      </c>
+      <c r="L39">
+        <v>0.03233088245724492</v>
+      </c>
+      <c r="M39">
+        <v>-0.06911690218724469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05467701040357145</v>
+        <v>-0.0371369827602528</v>
       </c>
       <c r="C40">
-        <v>0.04460390061388651</v>
+        <v>0.05876623162337901</v>
       </c>
       <c r="D40">
-        <v>0.04376597531176648</v>
+        <v>0.05043728152538918</v>
       </c>
       <c r="E40">
-        <v>0.1439892872977735</v>
+        <v>-0.0005521588786900643</v>
       </c>
       <c r="F40">
-        <v>0.03769931798947911</v>
+        <v>0.1232440809279241</v>
       </c>
       <c r="G40">
-        <v>0.04994795658488412</v>
+        <v>0.05767588664090698</v>
       </c>
       <c r="H40">
-        <v>-0.1158614224767935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.01252510191245272</v>
+      </c>
+      <c r="I40">
+        <v>0.08171931568629213</v>
+      </c>
+      <c r="J40">
+        <v>-0.06057013515973887</v>
+      </c>
+      <c r="K40">
+        <v>-0.07637158761163455</v>
+      </c>
+      <c r="L40">
+        <v>0.09522989634395183</v>
+      </c>
+      <c r="M40">
+        <v>-0.02021628737859809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04662486282955999</v>
+        <v>-0.03792218588755607</v>
       </c>
       <c r="C41">
-        <v>0.05014297621033167</v>
+        <v>0.03587626145102901</v>
       </c>
       <c r="D41">
-        <v>-0.01342329558821582</v>
+        <v>-0.01671509766105303</v>
       </c>
       <c r="E41">
-        <v>0.0007682078577179242</v>
+        <v>0.0003314447590351254</v>
       </c>
       <c r="F41">
-        <v>0.02023001503240872</v>
+        <v>0.01474172683454948</v>
       </c>
       <c r="G41">
-        <v>0.01751448897805476</v>
+        <v>-0.0284068975599871</v>
       </c>
       <c r="H41">
-        <v>-0.03050505325298817</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.0110195516545694</v>
+      </c>
+      <c r="I41">
+        <v>0.006211414361033406</v>
+      </c>
+      <c r="J41">
+        <v>-0.01270345325855284</v>
+      </c>
+      <c r="K41">
+        <v>-0.0157529039612037</v>
+      </c>
+      <c r="L41">
+        <v>0.04624310482835728</v>
+      </c>
+      <c r="M41">
+        <v>0.02868602351128912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05990652221399879</v>
+        <v>-0.05167867604560758</v>
       </c>
       <c r="C43">
-        <v>0.04255839859353903</v>
+        <v>0.04836458157368741</v>
       </c>
       <c r="D43">
-        <v>-0.03038518360348362</v>
+        <v>0.01253944268272054</v>
       </c>
       <c r="E43">
-        <v>0.025601793252828</v>
+        <v>0.01301819539743887</v>
       </c>
       <c r="F43">
-        <v>-0.0109147105326203</v>
+        <v>0.01378654860901614</v>
       </c>
       <c r="G43">
-        <v>0.02456551953526835</v>
+        <v>-0.05886950037942738</v>
       </c>
       <c r="H43">
-        <v>-0.01884261634804557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.003678516244697669</v>
+      </c>
+      <c r="I43">
+        <v>0.005395856936823754</v>
+      </c>
+      <c r="J43">
+        <v>-0.001113385071006654</v>
+      </c>
+      <c r="K43">
+        <v>0.007189566650852266</v>
+      </c>
+      <c r="L43">
+        <v>0.03036872122231022</v>
+      </c>
+      <c r="M43">
+        <v>0.01751038807374688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05356044644190729</v>
+        <v>-0.0829212434738385</v>
       </c>
       <c r="C44">
-        <v>0.007632120723388057</v>
+        <v>0.05384508669441146</v>
       </c>
       <c r="D44">
-        <v>-0.07673724779869719</v>
+        <v>0.07317321534663669</v>
       </c>
       <c r="E44">
-        <v>0.1257420178367335</v>
+        <v>0.1001751943285622</v>
       </c>
       <c r="F44">
-        <v>0.05629153406788404</v>
+        <v>0.1507227811781088</v>
       </c>
       <c r="G44">
-        <v>-0.01009242909072491</v>
+        <v>-0.0116138440022814</v>
       </c>
       <c r="H44">
-        <v>-0.01467651323131073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.06378399782237303</v>
+      </c>
+      <c r="I44">
+        <v>0.09193267213600188</v>
+      </c>
+      <c r="J44">
+        <v>-0.02497536922169375</v>
+      </c>
+      <c r="K44">
+        <v>0.006238223683158269</v>
+      </c>
+      <c r="L44">
+        <v>0.04091961696927986</v>
+      </c>
+      <c r="M44">
+        <v>-0.07853831657226988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.021103800220136</v>
+        <v>-0.03257278611528721</v>
       </c>
       <c r="C46">
-        <v>0.04406521953382063</v>
+        <v>0.04012421240789073</v>
       </c>
       <c r="D46">
-        <v>-0.01336811318471614</v>
+        <v>0.04147801468326485</v>
       </c>
       <c r="E46">
-        <v>0.04425984105863216</v>
+        <v>0.03894911078684116</v>
       </c>
       <c r="F46">
-        <v>0.001690874042761413</v>
+        <v>0.03623117292909785</v>
       </c>
       <c r="G46">
-        <v>0.003328391203108749</v>
+        <v>0.01542654261338105</v>
       </c>
       <c r="H46">
-        <v>-0.01015631119743211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.06874970743875033</v>
+      </c>
+      <c r="I46">
+        <v>0.002303291360266392</v>
+      </c>
+      <c r="J46">
+        <v>0.03864230480003313</v>
+      </c>
+      <c r="K46">
+        <v>-0.05779063235391649</v>
+      </c>
+      <c r="L46">
+        <v>0.06304498003489602</v>
+      </c>
+      <c r="M46">
+        <v>0.01617600654986299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02792586746752833</v>
+        <v>-0.0465974229860219</v>
       </c>
       <c r="C47">
-        <v>0.000513027562710601</v>
+        <v>0.02835699779508699</v>
       </c>
       <c r="D47">
-        <v>0.01413669653436709</v>
+        <v>0.01938488335218055</v>
       </c>
       <c r="E47">
-        <v>0.07312407727698539</v>
+        <v>0.01014093472110404</v>
       </c>
       <c r="F47">
-        <v>0.002777056043992279</v>
+        <v>0.04065538788099203</v>
       </c>
       <c r="G47">
-        <v>0.02687035786534638</v>
+        <v>-0.01957118777407148</v>
       </c>
       <c r="H47">
-        <v>0.04240496185664139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02077450330424175</v>
+      </c>
+      <c r="I47">
+        <v>0.03018442234622181</v>
+      </c>
+      <c r="J47">
+        <v>0.04143187394133312</v>
+      </c>
+      <c r="K47">
+        <v>-0.03182560633926647</v>
+      </c>
+      <c r="L47">
+        <v>0.01425393458874515</v>
+      </c>
+      <c r="M47">
+        <v>0.0431023467032067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03369298367792976</v>
+        <v>-0.04186258125664335</v>
       </c>
       <c r="C48">
-        <v>0.03016986814346953</v>
+        <v>0.02249814796772808</v>
       </c>
       <c r="D48">
-        <v>-0.005666552298337934</v>
+        <v>0.011208220114599</v>
       </c>
       <c r="E48">
-        <v>0.0466013983535121</v>
+        <v>0.003952167737010759</v>
       </c>
       <c r="F48">
-        <v>-0.01064105168059651</v>
+        <v>0.07246746727787186</v>
       </c>
       <c r="G48">
-        <v>0.04905086726187881</v>
+        <v>0.02968714729102396</v>
       </c>
       <c r="H48">
-        <v>-0.003847056695909573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.03946392220635921</v>
+      </c>
+      <c r="I48">
+        <v>0.02239597666248325</v>
+      </c>
+      <c r="J48">
+        <v>0.04380955033334345</v>
+      </c>
+      <c r="K48">
+        <v>0.01765609739485023</v>
+      </c>
+      <c r="L48">
+        <v>0.04710900958683711</v>
+      </c>
+      <c r="M48">
+        <v>0.02953527734944743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2034517310574162</v>
+        <v>-0.2255799083192477</v>
       </c>
       <c r="C49">
-        <v>0.118681937594236</v>
+        <v>0.07916542238749964</v>
       </c>
       <c r="D49">
-        <v>-0.08397679242289119</v>
+        <v>-0.05578681905637775</v>
       </c>
       <c r="E49">
-        <v>-0.07107930546705636</v>
+        <v>0.02806489343768249</v>
       </c>
       <c r="F49">
-        <v>-0.1260429938799198</v>
+        <v>-0.2322653857735898</v>
       </c>
       <c r="G49">
-        <v>-0.1505496963133908</v>
+        <v>0.148111546657723</v>
       </c>
       <c r="H49">
-        <v>-0.01432942924720014</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.05430933915279961</v>
+      </c>
+      <c r="I49">
+        <v>0.1454543516677846</v>
+      </c>
+      <c r="J49">
+        <v>-0.1060687190867355</v>
+      </c>
+      <c r="K49">
+        <v>0.07736169641570574</v>
+      </c>
+      <c r="L49">
+        <v>-0.1440772509019954</v>
+      </c>
+      <c r="M49">
+        <v>0.0964327368542507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05685054673549738</v>
+        <v>-0.04346511459107567</v>
       </c>
       <c r="C50">
-        <v>0.0270068103895737</v>
+        <v>0.04386485407144466</v>
       </c>
       <c r="D50">
-        <v>-0.001117872168047475</v>
+        <v>0.003102986982230241</v>
       </c>
       <c r="E50">
-        <v>0.02052491147772545</v>
+        <v>-0.01162188308261792</v>
       </c>
       <c r="F50">
-        <v>0.003742262304162088</v>
+        <v>0.04361955691474724</v>
       </c>
       <c r="G50">
-        <v>0.06893801253537846</v>
+        <v>-0.0354849780826268</v>
       </c>
       <c r="H50">
-        <v>0.03661580265031497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03843452783702358</v>
+      </c>
+      <c r="I50">
+        <v>-0.009039990626064595</v>
+      </c>
+      <c r="J50">
+        <v>0.04503326854257951</v>
+      </c>
+      <c r="K50">
+        <v>-0.03395243634726861</v>
+      </c>
+      <c r="L50">
+        <v>0.01968061969191797</v>
+      </c>
+      <c r="M50">
+        <v>-0.02027623186690397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.03032059350679739</v>
+        <v>-0.02940586251537505</v>
       </c>
       <c r="C51">
-        <v>0.01316505406352242</v>
+        <v>0.005619058735732814</v>
       </c>
       <c r="D51">
-        <v>0.0002919632130862146</v>
+        <v>-0.001457631269726984</v>
       </c>
       <c r="E51">
-        <v>0.01488667748195205</v>
+        <v>0.0193282648417769</v>
       </c>
       <c r="F51">
-        <v>0.009228189630898045</v>
+        <v>-0.01603901067699491</v>
       </c>
       <c r="G51">
-        <v>-0.01886998694396945</v>
+        <v>-0.009652544375662613</v>
       </c>
       <c r="H51">
-        <v>-0.01504596284235524</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01674258100071513</v>
+      </c>
+      <c r="I51">
+        <v>0.01358533126291293</v>
+      </c>
+      <c r="J51">
+        <v>-0.02357609619872775</v>
+      </c>
+      <c r="K51">
+        <v>0.06203219087071259</v>
+      </c>
+      <c r="L51">
+        <v>-0.05901888564213324</v>
+      </c>
+      <c r="M51">
+        <v>-0.006246442238617433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01983526042647541</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.004683279200256</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01245756189005926</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.002726813944917471</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.00109730126868224</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.008080441744060071</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01298712459564754</v>
+      </c>
+      <c r="I52">
+        <v>-0.001106479741701252</v>
+      </c>
+      <c r="J52">
+        <v>0.0008250977010758888</v>
+      </c>
+      <c r="K52">
+        <v>0.01267524579915891</v>
+      </c>
+      <c r="L52">
+        <v>0.01174624964450535</v>
+      </c>
+      <c r="M52">
+        <v>-0.03424722102202658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1684823639054089</v>
+        <v>-0.154355091380808</v>
       </c>
       <c r="C53">
-        <v>0.01263929017601468</v>
+        <v>0.0448849985406734</v>
       </c>
       <c r="D53">
-        <v>-0.01562248194591831</v>
+        <v>-0.009612608417781245</v>
       </c>
       <c r="E53">
-        <v>-0.07640477704936209</v>
+        <v>-0.01326124860067054</v>
       </c>
       <c r="F53">
-        <v>0.2008285985492343</v>
+        <v>-0.07111082107373691</v>
       </c>
       <c r="G53">
-        <v>0.1843331592800457</v>
+        <v>-0.2150825493578583</v>
       </c>
       <c r="H53">
-        <v>0.03345777537881692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.08195367318090827</v>
+      </c>
+      <c r="I53">
+        <v>-0.09153589542847641</v>
+      </c>
+      <c r="J53">
+        <v>-0.009391506325777144</v>
+      </c>
+      <c r="K53">
+        <v>-0.1018678482469048</v>
+      </c>
+      <c r="L53">
+        <v>-0.06981087189381632</v>
+      </c>
+      <c r="M53">
+        <v>-0.1026082282053798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04621039951374067</v>
+        <v>-0.05745024872167953</v>
       </c>
       <c r="C54">
-        <v>0.03060844595261619</v>
+        <v>0.03568113245124083</v>
       </c>
       <c r="D54">
-        <v>-0.02839880190204944</v>
+        <v>0.01603256102319416</v>
       </c>
       <c r="E54">
-        <v>0.04517673980069663</v>
+        <v>0.02821087231252795</v>
       </c>
       <c r="F54">
-        <v>0.006969015496730543</v>
+        <v>0.1166254579506472</v>
       </c>
       <c r="G54">
-        <v>0.01687355814432711</v>
+        <v>0.02562560374777912</v>
       </c>
       <c r="H54">
-        <v>-0.005499625063316004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.04910256546700908</v>
+      </c>
+      <c r="I54">
+        <v>-0.04660418878601705</v>
+      </c>
+      <c r="J54">
+        <v>0.06500752001062504</v>
+      </c>
+      <c r="K54">
+        <v>-0.04572567290976622</v>
+      </c>
+      <c r="L54">
+        <v>0.1048613572099304</v>
+      </c>
+      <c r="M54">
+        <v>0.0291890591390476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09057138444963228</v>
+        <v>-0.08618161924952655</v>
       </c>
       <c r="C55">
-        <v>0.001712533726947279</v>
+        <v>0.03844533358279675</v>
       </c>
       <c r="D55">
-        <v>-0.008561935604875918</v>
+        <v>-0.02651390594063636</v>
       </c>
       <c r="E55">
-        <v>-0.01165392486265391</v>
+        <v>0.0006831228592194992</v>
       </c>
       <c r="F55">
-        <v>0.167495039266726</v>
+        <v>0.006158462874221588</v>
       </c>
       <c r="G55">
-        <v>0.1612126795086921</v>
+        <v>-0.1403210871544557</v>
       </c>
       <c r="H55">
-        <v>0.04875413273340155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.06977807086811447</v>
+      </c>
+      <c r="I55">
+        <v>-0.06027206102553014</v>
+      </c>
+      <c r="J55">
+        <v>-0.001907810217350368</v>
+      </c>
+      <c r="K55">
+        <v>-0.06915247050520044</v>
+      </c>
+      <c r="L55">
+        <v>-0.05544439151727413</v>
+      </c>
+      <c r="M55">
+        <v>-0.01826176681285267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1631781109294394</v>
+        <v>-0.1487005608688661</v>
       </c>
       <c r="C56">
-        <v>0.01362304985158504</v>
+        <v>0.0692841670115807</v>
       </c>
       <c r="D56">
-        <v>-0.03466932713317848</v>
+        <v>-0.02906803259793601</v>
       </c>
       <c r="E56">
-        <v>-0.07306853573093448</v>
+        <v>0.00653003756752146</v>
       </c>
       <c r="F56">
-        <v>0.1613311545846031</v>
+        <v>-0.04213667822169404</v>
       </c>
       <c r="G56">
-        <v>0.1949041312664032</v>
+        <v>-0.2132554393816197</v>
       </c>
       <c r="H56">
-        <v>0.04352832430022686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.06524788765702406</v>
+      </c>
+      <c r="I56">
+        <v>-0.09310536018543326</v>
+      </c>
+      <c r="J56">
+        <v>-0.03463505178629335</v>
+      </c>
+      <c r="K56">
+        <v>-0.1084985364939074</v>
+      </c>
+      <c r="L56">
+        <v>-0.05624699379948073</v>
+      </c>
+      <c r="M56">
+        <v>-0.05173144864436122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.04356232080882452</v>
+        <v>-0.03513823016973043</v>
       </c>
       <c r="C58">
-        <v>0.02823225258058087</v>
+        <v>0.03270144829137491</v>
       </c>
       <c r="D58">
-        <v>-0.01434654954622066</v>
+        <v>0.08278964974807287</v>
       </c>
       <c r="E58">
-        <v>0.3203104937595703</v>
+        <v>0.01978145973511962</v>
       </c>
       <c r="F58">
-        <v>-0.2056030350215345</v>
+        <v>0.04432695486565277</v>
       </c>
       <c r="G58">
-        <v>-0.02415801795789352</v>
+        <v>0.0649226428543293</v>
       </c>
       <c r="H58">
-        <v>0.1875266219484827</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.009347353263814383</v>
+      </c>
+      <c r="I58">
+        <v>0.1143896619200132</v>
+      </c>
+      <c r="J58">
+        <v>0.2138457576947709</v>
+      </c>
+      <c r="K58">
+        <v>0.357103002727104</v>
+      </c>
+      <c r="L58">
+        <v>0.003062722031969792</v>
+      </c>
+      <c r="M58">
+        <v>0.121101775730512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2372263711310651</v>
+        <v>-0.2276740012751284</v>
       </c>
       <c r="C59">
-        <v>-0.4082287948934158</v>
+        <v>-0.3002259787505203</v>
       </c>
       <c r="D59">
-        <v>-0.01567648367117769</v>
+        <v>-0.04793678309047025</v>
       </c>
       <c r="E59">
-        <v>0.01272218219053553</v>
+        <v>0.00711032538640802</v>
       </c>
       <c r="F59">
-        <v>0.0693337683895662</v>
+        <v>0.0285410727634365</v>
       </c>
       <c r="G59">
-        <v>0.01009084245911667</v>
+        <v>-0.07045445124707564</v>
       </c>
       <c r="H59">
-        <v>-0.07795815306166416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.009539852325908009</v>
+      </c>
+      <c r="I59">
+        <v>-0.08902104460321245</v>
+      </c>
+      <c r="J59">
+        <v>-0.09851419028317222</v>
+      </c>
+      <c r="K59">
+        <v>0.03307541953167358</v>
+      </c>
+      <c r="L59">
+        <v>-0.02365313604425996</v>
+      </c>
+      <c r="M59">
+        <v>-0.03457240820061469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2516123484838336</v>
+        <v>-0.242518450764623</v>
       </c>
       <c r="C60">
-        <v>0.06733247740797212</v>
+        <v>0.1201803952624206</v>
       </c>
       <c r="D60">
-        <v>-0.09236401467922115</v>
+        <v>-0.06418325419869446</v>
       </c>
       <c r="E60">
-        <v>-0.003937789363839763</v>
+        <v>0.04802306409563484</v>
       </c>
       <c r="F60">
-        <v>-0.03848136371195737</v>
+        <v>-0.09637980646439438</v>
       </c>
       <c r="G60">
-        <v>-0.03641904575932258</v>
+        <v>0.03871420783633407</v>
       </c>
       <c r="H60">
-        <v>0.07660571280212444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09247004624007542</v>
+      </c>
+      <c r="I60">
+        <v>-0.001042364226325388</v>
+      </c>
+      <c r="J60">
+        <v>0.05029632832250974</v>
+      </c>
+      <c r="K60">
+        <v>-0.02046726757717774</v>
+      </c>
+      <c r="L60">
+        <v>-0.2195070191741211</v>
+      </c>
+      <c r="M60">
+        <v>-0.04868424847136287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08685052377210391</v>
+        <v>-0.09191703474418624</v>
       </c>
       <c r="C61">
-        <v>0.0626514639302458</v>
+        <v>0.06655620944520045</v>
       </c>
       <c r="D61">
-        <v>-0.0188078270725288</v>
+        <v>-0.04608634329519053</v>
       </c>
       <c r="E61">
-        <v>0.00836226075773356</v>
+        <v>0.01569341256637809</v>
       </c>
       <c r="F61">
-        <v>0.01534193289542035</v>
+        <v>0.1182678509500514</v>
       </c>
       <c r="G61">
-        <v>0.0138895206712877</v>
+        <v>-0.08025979180187189</v>
       </c>
       <c r="H61">
-        <v>-0.06292414940619459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01638361157603632</v>
+      </c>
+      <c r="I61">
+        <v>0.06254319682297742</v>
+      </c>
+      <c r="J61">
+        <v>-0.01818521603665454</v>
+      </c>
+      <c r="K61">
+        <v>0.0765443293457836</v>
+      </c>
+      <c r="L61">
+        <v>0.04867365464638334</v>
+      </c>
+      <c r="M61">
+        <v>-0.01440453629549972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.159583267723487</v>
+        <v>-0.1400441392602849</v>
       </c>
       <c r="C62">
-        <v>0.05077386532618428</v>
+        <v>0.07216617337399761</v>
       </c>
       <c r="D62">
-        <v>0.003965698932878426</v>
+        <v>-0.02675800458800059</v>
       </c>
       <c r="E62">
-        <v>-0.1228619097170979</v>
+        <v>-0.04008844607050931</v>
       </c>
       <c r="F62">
-        <v>0.211615723469944</v>
+        <v>-0.0407245156125757</v>
       </c>
       <c r="G62">
-        <v>0.1283380938839074</v>
+        <v>-0.1579963771120343</v>
       </c>
       <c r="H62">
-        <v>-0.008114325464029763</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.0921209163311234</v>
+      </c>
+      <c r="I62">
+        <v>-0.08394582486982922</v>
+      </c>
+      <c r="J62">
+        <v>-0.03852733147756546</v>
+      </c>
+      <c r="K62">
+        <v>-0.1713916025486144</v>
+      </c>
+      <c r="L62">
+        <v>-0.03657470475176835</v>
+      </c>
+      <c r="M62">
+        <v>0.002103366931224544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03955333920730114</v>
+        <v>-0.04545476914651667</v>
       </c>
       <c r="C63">
-        <v>0.0412214780493982</v>
+        <v>0.02833139251736169</v>
       </c>
       <c r="D63">
-        <v>-0.005346073722581846</v>
+        <v>-0.007947444790958659</v>
       </c>
       <c r="E63">
-        <v>0.000271951484839055</v>
+        <v>-0.01270204069355177</v>
       </c>
       <c r="F63">
-        <v>0.01463508382439304</v>
+        <v>0.06303789035766452</v>
       </c>
       <c r="G63">
-        <v>0.02052046239511195</v>
+        <v>-0.00421228837364779</v>
       </c>
       <c r="H63">
-        <v>0.04763313787659894</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.02077267037466968</v>
+      </c>
+      <c r="I63">
+        <v>0.02243568060464068</v>
+      </c>
+      <c r="J63">
+        <v>0.04984108789342111</v>
+      </c>
+      <c r="K63">
+        <v>-0.001381775972664604</v>
+      </c>
+      <c r="L63">
+        <v>0.01948641237431986</v>
+      </c>
+      <c r="M63">
+        <v>0.01886640302187048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1037678509929527</v>
+        <v>-0.09899285262187468</v>
       </c>
       <c r="C64">
-        <v>0.0260397804738083</v>
+        <v>0.04813572429109388</v>
       </c>
       <c r="D64">
-        <v>-0.03373057158689881</v>
+        <v>0.004437646332552338</v>
       </c>
       <c r="E64">
-        <v>0.03595489109023042</v>
+        <v>0.03847079465104423</v>
       </c>
       <c r="F64">
-        <v>-0.01174140060289016</v>
+        <v>0.0668057960564061</v>
       </c>
       <c r="G64">
-        <v>-0.01353461124750476</v>
+        <v>-0.01639158164821179</v>
       </c>
       <c r="H64">
-        <v>-0.04278700975409929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.01280353056488093</v>
+      </c>
+      <c r="I64">
+        <v>0.06532142882232948</v>
+      </c>
+      <c r="J64">
+        <v>0.03634675495067623</v>
+      </c>
+      <c r="K64">
+        <v>0.0297853390681806</v>
+      </c>
+      <c r="L64">
+        <v>0.03848677006848769</v>
+      </c>
+      <c r="M64">
+        <v>-0.0181668297127831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.126205288416311</v>
+        <v>-0.1249407602092433</v>
       </c>
       <c r="C65">
-        <v>0.04351065905809081</v>
+        <v>0.05005219812608473</v>
       </c>
       <c r="D65">
-        <v>-0.04284353611641868</v>
+        <v>-0.004442298078825996</v>
       </c>
       <c r="E65">
-        <v>0.1047072855337035</v>
+        <v>-0.0105438185368248</v>
       </c>
       <c r="F65">
-        <v>-0.1107035711763451</v>
+        <v>0.04810150656505728</v>
       </c>
       <c r="G65">
-        <v>-0.1043296502797009</v>
+        <v>0.2040836789234927</v>
       </c>
       <c r="H65">
-        <v>0.6777215944236011</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.1700843636869573</v>
+      </c>
+      <c r="I65">
+        <v>-0.1232582488559707</v>
+      </c>
+      <c r="J65">
+        <v>0.5670079344234488</v>
+      </c>
+      <c r="K65">
+        <v>-0.2361808498060102</v>
+      </c>
+      <c r="L65">
+        <v>-0.2409155925736157</v>
+      </c>
+      <c r="M65">
+        <v>-0.1234197920909133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1559413513012741</v>
+        <v>-0.125642141048981</v>
       </c>
       <c r="C66">
-        <v>0.1363620737209219</v>
+        <v>0.1330257646024572</v>
       </c>
       <c r="D66">
-        <v>-0.03744962815576374</v>
+        <v>-0.09947648131687833</v>
       </c>
       <c r="E66">
-        <v>-0.001754321775492976</v>
+        <v>-0.02886603769944197</v>
       </c>
       <c r="F66">
-        <v>0.09330822073478151</v>
+        <v>0.1551421516100026</v>
       </c>
       <c r="G66">
-        <v>-0.05545170889139931</v>
+        <v>-0.1007126577796136</v>
       </c>
       <c r="H66">
-        <v>-0.2576132903994382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.01312101792442336</v>
+      </c>
+      <c r="I66">
+        <v>0.170853542148974</v>
+      </c>
+      <c r="J66">
+        <v>-0.1009094695526048</v>
+      </c>
+      <c r="K66">
+        <v>0.1926655314534594</v>
+      </c>
+      <c r="L66">
+        <v>0.02928976391338771</v>
+      </c>
+      <c r="M66">
+        <v>-0.1256034115490396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07782218912405993</v>
+        <v>-0.08060615425794782</v>
       </c>
       <c r="C67">
-        <v>0.05115909351692255</v>
+        <v>0.05992749846111679</v>
       </c>
       <c r="D67">
-        <v>-0.004751242769983021</v>
+        <v>0.02218334358693233</v>
       </c>
       <c r="E67">
-        <v>0.005842030222341065</v>
+        <v>0.01700488390688009</v>
       </c>
       <c r="F67">
-        <v>0.0002607416938480463</v>
+        <v>-0.04243050598231186</v>
       </c>
       <c r="G67">
-        <v>-0.003330987755866844</v>
+        <v>-0.09610162731849714</v>
       </c>
       <c r="H67">
-        <v>-0.05853493398983155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.0603069968016832</v>
+      </c>
+      <c r="I67">
+        <v>0.02394041080766404</v>
+      </c>
+      <c r="J67">
+        <v>-0.08639052296035063</v>
+      </c>
+      <c r="K67">
+        <v>-0.07562798144989266</v>
+      </c>
+      <c r="L67">
+        <v>0.03259831176515875</v>
+      </c>
+      <c r="M67">
+        <v>-0.08553353038083417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09750879352792674</v>
+        <v>-0.1222008555661813</v>
       </c>
       <c r="C68">
-        <v>-0.2777103704794032</v>
+        <v>-0.2742231775856436</v>
       </c>
       <c r="D68">
-        <v>0.01466278164224299</v>
+        <v>-0.01004989007759777</v>
       </c>
       <c r="E68">
-        <v>0.0118476343697214</v>
+        <v>0.001021740041263316</v>
       </c>
       <c r="F68">
-        <v>0.002034354370689885</v>
+        <v>0.03122465451215714</v>
       </c>
       <c r="G68">
-        <v>0.04320124555313447</v>
+        <v>-0.0251656066798358</v>
       </c>
       <c r="H68">
-        <v>0.01555978654702611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.006485096002353437</v>
+      </c>
+      <c r="I68">
+        <v>0.0006963076480461763</v>
+      </c>
+      <c r="J68">
+        <v>0.07127949306803652</v>
+      </c>
+      <c r="K68">
+        <v>-0.009982842402156729</v>
+      </c>
+      <c r="L68">
+        <v>0.002085494602908158</v>
+      </c>
+      <c r="M68">
+        <v>-0.03790757106325854</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04144260291092714</v>
+        <v>-0.04269528786952205</v>
       </c>
       <c r="C69">
-        <v>0.03218288440999391</v>
+        <v>0.02427987768439773</v>
       </c>
       <c r="D69">
-        <v>-0.007746853000014963</v>
+        <v>0.006680957442732825</v>
       </c>
       <c r="E69">
-        <v>0.01895943190664433</v>
+        <v>0.0001059591464253243</v>
       </c>
       <c r="F69">
-        <v>0.03906803474781843</v>
+        <v>0.01928246107135161</v>
       </c>
       <c r="G69">
-        <v>0.002516481496512237</v>
+        <v>-0.03251845525639779</v>
       </c>
       <c r="H69">
-        <v>0.009342580521942668</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.001022727449136242</v>
+      </c>
+      <c r="I69">
+        <v>0.01362683036295806</v>
+      </c>
+      <c r="J69">
+        <v>-0.003080966110595115</v>
+      </c>
+      <c r="K69">
+        <v>-0.02410389317861768</v>
+      </c>
+      <c r="L69">
+        <v>-0.003259689093085491</v>
+      </c>
+      <c r="M69">
+        <v>0.07626766715886024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.05115042479870253</v>
+        <v>-0.05270186400878245</v>
       </c>
       <c r="C70">
-        <v>-0.001420838075896247</v>
+        <v>0.03443554296631766</v>
       </c>
       <c r="D70">
-        <v>-0.04141635150373667</v>
+        <v>-0.02289957278700581</v>
       </c>
       <c r="E70">
-        <v>-0.0177967759370853</v>
+        <v>0.02052367093075956</v>
       </c>
       <c r="F70">
-        <v>-0.1020483663495896</v>
+        <v>0.003319331935864396</v>
       </c>
       <c r="G70">
-        <v>-0.0397089142605078</v>
+        <v>0.06592016263735366</v>
       </c>
       <c r="H70">
-        <v>-0.03662051821040847</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01511875622999808</v>
+      </c>
+      <c r="I70">
+        <v>-0.02573905313357853</v>
+      </c>
+      <c r="J70">
+        <v>0.04926908869603371</v>
+      </c>
+      <c r="K70">
+        <v>-0.1577962603862232</v>
+      </c>
+      <c r="L70">
+        <v>0.2647494342921102</v>
+      </c>
+      <c r="M70">
+        <v>0.1328399661512694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1033757881970924</v>
+        <v>-0.1371473045716928</v>
       </c>
       <c r="C71">
-        <v>-0.2840208115447356</v>
+        <v>-0.2818534258814584</v>
       </c>
       <c r="D71">
-        <v>-0.0204609720557035</v>
+        <v>-0.01416216638503905</v>
       </c>
       <c r="E71">
-        <v>0.002838403616957477</v>
+        <v>0.02040750918900563</v>
       </c>
       <c r="F71">
-        <v>-0.02028881349735858</v>
+        <v>0.03186405977257425</v>
       </c>
       <c r="G71">
-        <v>0.02729540153127464</v>
+        <v>-0.02845696509011952</v>
       </c>
       <c r="H71">
-        <v>-0.006336578280330771</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.0007442443410378374</v>
+      </c>
+      <c r="I71">
+        <v>0.02891904059502766</v>
+      </c>
+      <c r="J71">
+        <v>0.03636842379187103</v>
+      </c>
+      <c r="K71">
+        <v>0.0003816091762062801</v>
+      </c>
+      <c r="L71">
+        <v>-0.002532084824611985</v>
+      </c>
+      <c r="M71">
+        <v>-0.02690205091691206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1797382623313706</v>
+        <v>-0.1427518231538204</v>
       </c>
       <c r="C72">
-        <v>0.04286154599704426</v>
+        <v>0.03180178204476697</v>
       </c>
       <c r="D72">
-        <v>0.2427082749430079</v>
+        <v>0.007992938715135936</v>
       </c>
       <c r="E72">
-        <v>-0.0293316647191643</v>
+        <v>-0.1876303763823521</v>
       </c>
       <c r="F72">
-        <v>0.08416514503373468</v>
+        <v>0.0491479956881004</v>
       </c>
       <c r="G72">
-        <v>-0.07659627190243086</v>
+        <v>-0.01953627478178048</v>
       </c>
       <c r="H72">
-        <v>0.1008078597041354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.05046932823910826</v>
+      </c>
+      <c r="I72">
+        <v>-0.0541138383985427</v>
+      </c>
+      <c r="J72">
+        <v>0.03417973614126769</v>
+      </c>
+      <c r="K72">
+        <v>-0.09029640399310644</v>
+      </c>
+      <c r="L72">
+        <v>-0.1076694685666503</v>
+      </c>
+      <c r="M72">
+        <v>-0.01943286629058372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2760132595128435</v>
+        <v>-0.2440387704375949</v>
       </c>
       <c r="C73">
-        <v>0.1784237643101698</v>
+        <v>0.1537100962312712</v>
       </c>
       <c r="D73">
-        <v>-0.1243492692531344</v>
+        <v>-0.1434505867284136</v>
       </c>
       <c r="E73">
-        <v>-0.06753439522808367</v>
+        <v>0.08459987999741617</v>
       </c>
       <c r="F73">
-        <v>-0.1676795796381791</v>
+        <v>-0.4277223410323672</v>
       </c>
       <c r="G73">
-        <v>-0.09574369136786347</v>
+        <v>0.09945331096336511</v>
       </c>
       <c r="H73">
-        <v>0.1666143375728906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2597103339769117</v>
+      </c>
+      <c r="I73">
+        <v>0.2964194352499089</v>
+      </c>
+      <c r="J73">
+        <v>-0.09908588406958921</v>
+      </c>
+      <c r="K73">
+        <v>0.1925973641308412</v>
+      </c>
+      <c r="L73">
+        <v>-0.2640768095660975</v>
+      </c>
+      <c r="M73">
+        <v>-0.1204726810336022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09487654663772536</v>
+        <v>-0.09381081269738001</v>
       </c>
       <c r="C74">
-        <v>0.04002380720022092</v>
+        <v>0.07150599410003977</v>
       </c>
       <c r="D74">
-        <v>-0.004127134282833681</v>
+        <v>-0.006303526045849492</v>
       </c>
       <c r="E74">
-        <v>-0.02407048106475417</v>
+        <v>-0.01637300786598367</v>
       </c>
       <c r="F74">
-        <v>0.07862731510669622</v>
+        <v>-0.04187965951143961</v>
       </c>
       <c r="G74">
-        <v>0.1309487078081931</v>
+        <v>-0.1455112383928687</v>
       </c>
       <c r="H74">
-        <v>0.05997768545474579</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.02612547650982214</v>
+      </c>
+      <c r="I74">
+        <v>0.01490384513941402</v>
+      </c>
+      <c r="J74">
+        <v>-0.001987459852659663</v>
+      </c>
+      <c r="K74">
+        <v>-0.04895003048992495</v>
+      </c>
+      <c r="L74">
+        <v>-0.03453397314619726</v>
+      </c>
+      <c r="M74">
+        <v>-0.02395997274257073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09181842939576074</v>
+        <v>-0.09302867482535102</v>
       </c>
       <c r="C75">
-        <v>0.02012657829066531</v>
+        <v>0.05069799577604132</v>
       </c>
       <c r="D75">
-        <v>-0.007762991507623938</v>
+        <v>-0.004677735155452152</v>
       </c>
       <c r="E75">
-        <v>-0.0333092903485916</v>
+        <v>-0.01300555106741709</v>
       </c>
       <c r="F75">
-        <v>0.08095637917965155</v>
+        <v>-0.02252605676928044</v>
       </c>
       <c r="G75">
-        <v>0.0887403762328632</v>
+        <v>-0.09594751823889475</v>
       </c>
       <c r="H75">
-        <v>0.0182607001441099</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.04453475180301788</v>
+      </c>
+      <c r="I75">
+        <v>-0.07749331357036472</v>
+      </c>
+      <c r="J75">
+        <v>-0.01619457930474821</v>
+      </c>
+      <c r="K75">
+        <v>-0.04305733016564599</v>
+      </c>
+      <c r="L75">
+        <v>-0.02720597322756832</v>
+      </c>
+      <c r="M75">
+        <v>0.0808459095660372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1330717827232971</v>
+        <v>-0.0896679333772077</v>
       </c>
       <c r="C76">
-        <v>0.0308613006042494</v>
+        <v>0.0640099383300234</v>
       </c>
       <c r="D76">
-        <v>-0.008505267868711509</v>
+        <v>-0.001049926431941417</v>
       </c>
       <c r="E76">
-        <v>-0.006049235690301732</v>
+        <v>0.00432787210573025</v>
       </c>
       <c r="F76">
-        <v>0.1698320014458777</v>
+        <v>-0.04973617576869464</v>
       </c>
       <c r="G76">
-        <v>0.1838850322780202</v>
+        <v>-0.1912366796196311</v>
       </c>
       <c r="H76">
-        <v>0.05902045128640664</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.09061162534473403</v>
+      </c>
+      <c r="I76">
+        <v>-0.09461767911936968</v>
+      </c>
+      <c r="J76">
+        <v>-0.01695749261595476</v>
+      </c>
+      <c r="K76">
+        <v>-0.06843198989038181</v>
+      </c>
+      <c r="L76">
+        <v>-0.04917881965656435</v>
+      </c>
+      <c r="M76">
+        <v>-0.079171179764154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08202183527086752</v>
+        <v>-0.07150229450327576</v>
       </c>
       <c r="C77">
-        <v>0.01581277935145841</v>
+        <v>0.02316598531649638</v>
       </c>
       <c r="D77">
-        <v>-0.02497458273411441</v>
+        <v>-0.0117869995636294</v>
       </c>
       <c r="E77">
-        <v>0.3066992453847985</v>
+        <v>0.05923630936607047</v>
       </c>
       <c r="F77">
-        <v>0.4387945676567533</v>
+        <v>0.3977955887222682</v>
       </c>
       <c r="G77">
-        <v>-0.6418609734533472</v>
+        <v>0.09681802579517795</v>
       </c>
       <c r="H77">
-        <v>-0.1232301001884445</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.6378325213594341</v>
+      </c>
+      <c r="I77">
+        <v>-0.1821296374175125</v>
+      </c>
+      <c r="J77">
+        <v>-0.4091636019135522</v>
+      </c>
+      <c r="K77">
+        <v>-0.1901520331636234</v>
+      </c>
+      <c r="L77">
+        <v>-0.0332641739897216</v>
+      </c>
+      <c r="M77">
+        <v>-0.02840714522658059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1363358812901759</v>
+        <v>-0.1629367086247295</v>
       </c>
       <c r="C78">
-        <v>0.06669052792103516</v>
+        <v>0.1229960738644278</v>
       </c>
       <c r="D78">
-        <v>-0.02659182679488049</v>
+        <v>0.1708788249312122</v>
       </c>
       <c r="E78">
-        <v>0.1629177036101214</v>
+        <v>0.1072145212979222</v>
       </c>
       <c r="F78">
-        <v>-0.05354950556397885</v>
+        <v>0.1251840681034702</v>
       </c>
       <c r="G78">
-        <v>0.004680309005009817</v>
+        <v>0.295396528907706</v>
       </c>
       <c r="H78">
-        <v>-0.08727018763843516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.2651252372239113</v>
+      </c>
+      <c r="I78">
+        <v>-0.5946112496463026</v>
+      </c>
+      <c r="J78">
+        <v>-0.13724254649857</v>
+      </c>
+      <c r="K78">
+        <v>0.4324935270821693</v>
+      </c>
+      <c r="L78">
+        <v>-0.1936152651675052</v>
+      </c>
+      <c r="M78">
+        <v>-0.08874490491565226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1404026421173137</v>
+        <v>-0.132995526442922</v>
       </c>
       <c r="C79">
-        <v>0.05077794666711974</v>
+        <v>0.07237774491509295</v>
       </c>
       <c r="D79">
-        <v>-0.02005033857827167</v>
+        <v>-0.0002874140560104664</v>
       </c>
       <c r="E79">
-        <v>-0.04524094238716699</v>
+        <v>-0.0003610364554007865</v>
       </c>
       <c r="F79">
-        <v>0.1258510681905143</v>
+        <v>-0.006212264847847197</v>
       </c>
       <c r="G79">
-        <v>0.1158271133473452</v>
+        <v>-0.1521484286461626</v>
       </c>
       <c r="H79">
-        <v>0.01176141567612328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.05516177258438313</v>
+      </c>
+      <c r="I79">
+        <v>-0.05034678490642495</v>
+      </c>
+      <c r="J79">
+        <v>-0.01260903073057396</v>
+      </c>
+      <c r="K79">
+        <v>-0.1109146030529473</v>
+      </c>
+      <c r="L79">
+        <v>-0.04653577941409758</v>
+      </c>
+      <c r="M79">
+        <v>0.01267190224325084</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02435439168284692</v>
+        <v>-0.05629616973432459</v>
       </c>
       <c r="C80">
-        <v>-0.0007251292094857401</v>
+        <v>0.02651794442455476</v>
       </c>
       <c r="D80">
-        <v>0.001284292683455649</v>
+        <v>-0.06807426118168139</v>
       </c>
       <c r="E80">
-        <v>-0.03699076127246326</v>
+        <v>0.00860732778253246</v>
       </c>
       <c r="F80">
-        <v>0.004124124218728778</v>
+        <v>0.02084674602623111</v>
       </c>
       <c r="G80">
-        <v>-0.01861701418400823</v>
+        <v>0.03391686998326126</v>
       </c>
       <c r="H80">
-        <v>0.06585034761333046</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.06737668623899541</v>
+      </c>
+      <c r="I80">
+        <v>0.0495884661061143</v>
+      </c>
+      <c r="J80">
+        <v>0.1344234678721746</v>
+      </c>
+      <c r="K80">
+        <v>0.04730904834983544</v>
+      </c>
+      <c r="L80">
+        <v>0.07373133724580674</v>
+      </c>
+      <c r="M80">
+        <v>0.0005565540572079867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1114235645574563</v>
+        <v>-0.1217388863625282</v>
       </c>
       <c r="C81">
-        <v>0.05231245984580772</v>
+        <v>0.05700525062245496</v>
       </c>
       <c r="D81">
-        <v>-0.02526450594853091</v>
+        <v>-0.0008112244540531896</v>
       </c>
       <c r="E81">
-        <v>-0.04176207256829281</v>
+        <v>0.002469036591221732</v>
       </c>
       <c r="F81">
-        <v>0.07630039394719974</v>
+        <v>0.01237941257103219</v>
       </c>
       <c r="G81">
-        <v>0.07820167075217098</v>
+        <v>-0.1279171426660177</v>
       </c>
       <c r="H81">
-        <v>0.02542928528271509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.0747674754425411</v>
+      </c>
+      <c r="I81">
+        <v>-0.02791961427786908</v>
+      </c>
+      <c r="J81">
+        <v>-0.02496601878019734</v>
+      </c>
+      <c r="K81">
+        <v>-0.05507503268598303</v>
+      </c>
+      <c r="L81">
+        <v>-0.02940969527316495</v>
+      </c>
+      <c r="M81">
+        <v>0.1126119496547912</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1098498567361311</v>
+        <v>-0.1166206289768551</v>
       </c>
       <c r="C82">
-        <v>0.0310918790545112</v>
+        <v>0.05087468250925982</v>
       </c>
       <c r="D82">
-        <v>-0.05057157715753678</v>
+        <v>-0.0246963016521229</v>
       </c>
       <c r="E82">
-        <v>-0.07406806885849454</v>
+        <v>-0.007935992042778544</v>
       </c>
       <c r="F82">
-        <v>0.1918118949243723</v>
+        <v>-0.04132186794402866</v>
       </c>
       <c r="G82">
-        <v>0.1849281707627054</v>
+        <v>-0.221270818137961</v>
       </c>
       <c r="H82">
-        <v>-0.01944414741994427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.0966116633820738</v>
+      </c>
+      <c r="I82">
+        <v>-0.03510085189784077</v>
+      </c>
+      <c r="J82">
+        <v>-0.06203388419971222</v>
+      </c>
+      <c r="K82">
+        <v>-0.09311777178181499</v>
+      </c>
+      <c r="L82">
+        <v>0.04540218418810536</v>
+      </c>
+      <c r="M82">
+        <v>0.04264480810539507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.06141275791023534</v>
+        <v>-0.07465243278748866</v>
       </c>
       <c r="C83">
-        <v>0.05109967089394092</v>
+        <v>0.07002303398233892</v>
       </c>
       <c r="D83">
-        <v>-0.03670004391602013</v>
+        <v>-0.01809536390108532</v>
       </c>
       <c r="E83">
-        <v>-0.01439279085004104</v>
+        <v>0.008110354005044397</v>
       </c>
       <c r="F83">
-        <v>-0.05443504430031169</v>
+        <v>0.008892866428892754</v>
       </c>
       <c r="G83">
-        <v>-0.04261521578619556</v>
+        <v>-0.03604312659860952</v>
       </c>
       <c r="H83">
-        <v>-0.09234646945990453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02348768384960296</v>
+      </c>
+      <c r="I83">
+        <v>0.06046209585056126</v>
+      </c>
+      <c r="J83">
+        <v>0.04519226710564994</v>
+      </c>
+      <c r="K83">
+        <v>0.04504439874519352</v>
+      </c>
+      <c r="L83">
+        <v>0.1564105910222192</v>
+      </c>
+      <c r="M83">
+        <v>-0.05685941971070455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.0498432845991537</v>
+        <v>-0.04823532125178424</v>
       </c>
       <c r="C84">
-        <v>0.05050706771850839</v>
+        <v>-0.02144094371256001</v>
       </c>
       <c r="D84">
-        <v>0.05819361024095501</v>
+        <v>-0.006269936783577756</v>
       </c>
       <c r="E84">
-        <v>-0.01596248022532707</v>
+        <v>-0.02076208228123252</v>
       </c>
       <c r="F84">
-        <v>-0.06517410353426673</v>
+        <v>0.004760838433464032</v>
       </c>
       <c r="G84">
-        <v>0.1226576661561155</v>
+        <v>0.2277857101711922</v>
       </c>
       <c r="H84">
-        <v>-0.01858534594116885</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.1673937241872426</v>
+      </c>
+      <c r="I84">
+        <v>0.1382856818402365</v>
+      </c>
+      <c r="J84">
+        <v>-0.08410604463256705</v>
+      </c>
+      <c r="K84">
+        <v>0.009197251439306692</v>
+      </c>
+      <c r="L84">
+        <v>0.1407434454291564</v>
+      </c>
+      <c r="M84">
+        <v>-0.5597905769651973</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08658792120511787</v>
+        <v>-0.1091860613008088</v>
       </c>
       <c r="C85">
-        <v>0.04224689203020317</v>
+        <v>0.04884056234731662</v>
       </c>
       <c r="D85">
-        <v>-0.04634226104249658</v>
+        <v>-0.009465600937745134</v>
       </c>
       <c r="E85">
-        <v>-0.02145325142750708</v>
+        <v>0.02672561315521864</v>
       </c>
       <c r="F85">
-        <v>0.1616004441806707</v>
+        <v>-0.00205458946459362</v>
       </c>
       <c r="G85">
-        <v>0.1112232452561343</v>
+        <v>-0.1634403529409997</v>
       </c>
       <c r="H85">
-        <v>0.05383200984912868</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.06138646855225709</v>
+      </c>
+      <c r="I85">
+        <v>-0.05145070759522611</v>
+      </c>
+      <c r="J85">
+        <v>-0.02183788252405932</v>
+      </c>
+      <c r="K85">
+        <v>-0.110387538023716</v>
+      </c>
+      <c r="L85">
+        <v>-0.072828670439891</v>
+      </c>
+      <c r="M85">
+        <v>0.03234903786781074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.04077751927778746</v>
+        <v>-0.07281486500193228</v>
       </c>
       <c r="C86">
-        <v>0.04310099676438411</v>
+        <v>0.01707896163537746</v>
       </c>
       <c r="D86">
-        <v>0.003102837296964333</v>
+        <v>0.01420579803681952</v>
       </c>
       <c r="E86">
-        <v>0.05272525672816458</v>
+        <v>0.1025964632075111</v>
       </c>
       <c r="F86">
-        <v>-0.01721160643015117</v>
+        <v>0.04637837408893221</v>
       </c>
       <c r="G86">
-        <v>-0.07062603359336415</v>
+        <v>0.4440394145416919</v>
       </c>
       <c r="H86">
-        <v>0.1028334544343278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4257764318451749</v>
+      </c>
+      <c r="I86">
+        <v>0.2469660371917437</v>
+      </c>
+      <c r="J86">
+        <v>-0.2965759682568868</v>
+      </c>
+      <c r="K86">
+        <v>-0.425982880606334</v>
+      </c>
+      <c r="L86">
+        <v>-0.17919941445609</v>
+      </c>
+      <c r="M86">
+        <v>-0.004972284402620177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.0931006237146306</v>
+        <v>-0.1133486947716963</v>
       </c>
       <c r="C87">
-        <v>0.05879169774120988</v>
+        <v>0.06727497175156059</v>
       </c>
       <c r="D87">
-        <v>-0.02322459895282202</v>
+        <v>0.03219618537482876</v>
       </c>
       <c r="E87">
-        <v>0.1434490532790399</v>
+        <v>0.04053343154165716</v>
       </c>
       <c r="F87">
-        <v>0.09282015853682507</v>
+        <v>0.1481610989710582</v>
       </c>
       <c r="G87">
-        <v>-0.1577798326011452</v>
+        <v>0.08267511184907832</v>
       </c>
       <c r="H87">
-        <v>-0.0636808132670057</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1762182875035596</v>
+      </c>
+      <c r="I87">
+        <v>0.01443875442079032</v>
+      </c>
+      <c r="J87">
+        <v>-0.09113565563777738</v>
+      </c>
+      <c r="K87">
+        <v>-0.07755003362433373</v>
+      </c>
+      <c r="L87">
+        <v>0.1232853239318082</v>
+      </c>
+      <c r="M87">
+        <v>0.02855384131279757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05460335936588229</v>
+        <v>-0.05666035617542355</v>
       </c>
       <c r="C88">
-        <v>0.03921490024425264</v>
+        <v>0.05362000070879686</v>
       </c>
       <c r="D88">
-        <v>-0.02607473706353933</v>
+        <v>-0.02732962104080687</v>
       </c>
       <c r="E88">
-        <v>0.01126482761143164</v>
+        <v>0.01363052619818049</v>
       </c>
       <c r="F88">
-        <v>0.001740445881336299</v>
+        <v>0.02933203287522776</v>
       </c>
       <c r="G88">
-        <v>-0.02155963235673875</v>
+        <v>-0.02958721971533874</v>
       </c>
       <c r="H88">
-        <v>-0.03062678264627557</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01333703755903136</v>
+      </c>
+      <c r="I88">
+        <v>0.04335006236873167</v>
+      </c>
+      <c r="J88">
+        <v>0.01635455664153079</v>
+      </c>
+      <c r="K88">
+        <v>0.02017956367296366</v>
+      </c>
+      <c r="L88">
+        <v>0.01638376620305051</v>
+      </c>
+      <c r="M88">
+        <v>0.02231405175217201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1696339977845418</v>
+        <v>-0.215094838067622</v>
       </c>
       <c r="C89">
-        <v>-0.3256720826050015</v>
+        <v>-0.3584829256637437</v>
       </c>
       <c r="D89">
-        <v>-0.06372709058372726</v>
+        <v>0.03932335462561905</v>
       </c>
       <c r="E89">
-        <v>0.08488319406678843</v>
+        <v>0.08186934085324851</v>
       </c>
       <c r="F89">
-        <v>-0.04518674488691368</v>
+        <v>0.0113889004428165</v>
       </c>
       <c r="G89">
-        <v>-0.01358838397965168</v>
+        <v>-0.000234353525062366</v>
       </c>
       <c r="H89">
-        <v>0.003669407355744624</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02432120730253547</v>
+      </c>
+      <c r="I89">
+        <v>0.0273891554753399</v>
+      </c>
+      <c r="J89">
+        <v>-0.008649490526985746</v>
+      </c>
+      <c r="K89">
+        <v>0.08292965011977958</v>
+      </c>
+      <c r="L89">
+        <v>0.01382638920103798</v>
+      </c>
+      <c r="M89">
+        <v>0.1067709696143657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1218046440055159</v>
+        <v>-0.1477294843762845</v>
       </c>
       <c r="C90">
-        <v>-0.2812241046339708</v>
+        <v>-0.269503045515418</v>
       </c>
       <c r="D90">
-        <v>0.000786932418205102</v>
+        <v>-0.01445479297322488</v>
       </c>
       <c r="E90">
-        <v>0.05036754382349316</v>
+        <v>0.0218288259144336</v>
       </c>
       <c r="F90">
-        <v>-0.00423192720033095</v>
+        <v>0.03327392229846752</v>
       </c>
       <c r="G90">
-        <v>-0.06663350154227272</v>
+        <v>0.00300333836380125</v>
       </c>
       <c r="H90">
-        <v>-0.04805093083569342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.02920810356610712</v>
+      </c>
+      <c r="I90">
+        <v>0.04706245412802181</v>
+      </c>
+      <c r="J90">
+        <v>0.01175296985482055</v>
+      </c>
+      <c r="K90">
+        <v>0.03495116239619041</v>
+      </c>
+      <c r="L90">
+        <v>-0.008182095092086004</v>
+      </c>
+      <c r="M90">
+        <v>-0.0575658613904806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08540887919476374</v>
+        <v>-0.07715263456346325</v>
       </c>
       <c r="C91">
-        <v>0.02457622809942861</v>
+        <v>0.0530408585999333</v>
       </c>
       <c r="D91">
-        <v>-0.008692261682187107</v>
+        <v>0.008362430632190264</v>
       </c>
       <c r="E91">
-        <v>0.01910537608370533</v>
+        <v>0.005899555681741183</v>
       </c>
       <c r="F91">
-        <v>0.05430865871713368</v>
+        <v>-0.01764443062193522</v>
       </c>
       <c r="G91">
-        <v>0.09716728548532073</v>
+        <v>-0.08001484061880713</v>
       </c>
       <c r="H91">
-        <v>0.01975097741556217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.0418264404729544</v>
+      </c>
+      <c r="I91">
+        <v>-0.04123684223217748</v>
+      </c>
+      <c r="J91">
+        <v>-0.02863225747895271</v>
+      </c>
+      <c r="K91">
+        <v>-0.01678916481404508</v>
+      </c>
+      <c r="L91">
+        <v>-0.02967201243646429</v>
+      </c>
+      <c r="M91">
+        <v>0.003506439120294438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1421034421428883</v>
+        <v>-0.1645629672944224</v>
       </c>
       <c r="C92">
-        <v>-0.3022881918407015</v>
+        <v>-0.3022143659509912</v>
       </c>
       <c r="D92">
-        <v>-0.03710697436243229</v>
+        <v>0.02935919061567706</v>
       </c>
       <c r="E92">
-        <v>0.0264151068350384</v>
+        <v>0.04533801819665111</v>
       </c>
       <c r="F92">
-        <v>-0.07102245818309007</v>
+        <v>0.02505595139057324</v>
       </c>
       <c r="G92">
-        <v>0.04218926558860293</v>
+        <v>-0.02663639171171706</v>
       </c>
       <c r="H92">
-        <v>0.00709512509358512</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.01827600757773304</v>
+      </c>
+      <c r="I92">
+        <v>0.002287196228646443</v>
+      </c>
+      <c r="J92">
+        <v>0.01261206286594619</v>
+      </c>
+      <c r="K92">
+        <v>0.04070402789817489</v>
+      </c>
+      <c r="L92">
+        <v>0.0007766015078870533</v>
+      </c>
+      <c r="M92">
+        <v>0.08423696873984682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1360233630905475</v>
+        <v>-0.1645818496145141</v>
       </c>
       <c r="C93">
-        <v>-0.2589925913344647</v>
+        <v>-0.2865617782630963</v>
       </c>
       <c r="D93">
-        <v>-0.01526798905720498</v>
+        <v>-0.03184826953835042</v>
       </c>
       <c r="E93">
-        <v>0.01839286236757784</v>
+        <v>0.009771656853083587</v>
       </c>
       <c r="F93">
-        <v>-0.02790053640827725</v>
+        <v>0.0155287027007859</v>
       </c>
       <c r="G93">
-        <v>-0.02823786459216816</v>
+        <v>0.01172943396944025</v>
       </c>
       <c r="H93">
-        <v>-0.01344496496079611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01183688555130586</v>
+      </c>
+      <c r="I93">
+        <v>0.0344378569249978</v>
+      </c>
+      <c r="J93">
+        <v>0.01817090536819715</v>
+      </c>
+      <c r="K93">
+        <v>-0.01573599978545644</v>
+      </c>
+      <c r="L93">
+        <v>0.0192794978255547</v>
+      </c>
+      <c r="M93">
+        <v>-0.0447674267345048</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08810045869129078</v>
+        <v>-0.1082071382935871</v>
       </c>
       <c r="C94">
-        <v>0.05970485030028694</v>
+        <v>0.07445177979535536</v>
       </c>
       <c r="D94">
-        <v>-0.004701979360078689</v>
+        <v>0.01927946681571492</v>
       </c>
       <c r="E94">
-        <v>-0.0007522961505582402</v>
+        <v>0.01202973920591846</v>
       </c>
       <c r="F94">
-        <v>0.0883899337909558</v>
+        <v>-0.04083277081776504</v>
       </c>
       <c r="G94">
-        <v>0.1507349793645351</v>
+        <v>-0.116745918220622</v>
       </c>
       <c r="H94">
-        <v>0.0512972233613272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.05795629142740791</v>
+      </c>
+      <c r="I94">
+        <v>-0.04934185115829168</v>
+      </c>
+      <c r="J94">
+        <v>0.009734704687433171</v>
+      </c>
+      <c r="K94">
+        <v>-0.01930826306051175</v>
+      </c>
+      <c r="L94">
+        <v>-0.05531141542766518</v>
+      </c>
+      <c r="M94">
+        <v>0.02899247259791139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1013569850720962</v>
+        <v>-0.1253428215204258</v>
       </c>
       <c r="C95">
-        <v>0.07399754458996362</v>
+        <v>0.07009045884726682</v>
       </c>
       <c r="D95">
-        <v>-0.06698773233916631</v>
+        <v>0.0161433419737023</v>
       </c>
       <c r="E95">
-        <v>0.02881676893554275</v>
+        <v>0.06149537820719272</v>
       </c>
       <c r="F95">
-        <v>-0.05692667195414622</v>
+        <v>0.07755989854033547</v>
       </c>
       <c r="G95">
-        <v>0.006711902458355296</v>
+        <v>0.2049045425736014</v>
       </c>
       <c r="H95">
-        <v>-0.004993903940238895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.02867388092135511</v>
+      </c>
+      <c r="I95">
+        <v>0.1804617534399386</v>
+      </c>
+      <c r="J95">
+        <v>0.08288263735808434</v>
+      </c>
+      <c r="K95">
+        <v>-0.03628914762866644</v>
+      </c>
+      <c r="L95">
+        <v>-0.01072966051534557</v>
+      </c>
+      <c r="M95">
+        <v>0.4968740660381507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-8.026947140272549e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>8.124764134060469e-05</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>5.927270431764331e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0002611304869045102</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0005147541566918061</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0007149020484111837</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0001248609225417985</v>
+      </c>
+      <c r="I96">
+        <v>0.001109662032826328</v>
+      </c>
+      <c r="J96">
+        <v>0.0005956964346906877</v>
+      </c>
+      <c r="K96">
+        <v>-0.0006431986567324937</v>
+      </c>
+      <c r="L96">
+        <v>-0.0004827749236306489</v>
+      </c>
+      <c r="M96">
+        <v>-0.0003891024876949151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2576920882711677</v>
+        <v>-0.1615162002930023</v>
       </c>
       <c r="C97">
-        <v>0.04709422582725118</v>
+        <v>-0.001230518004465514</v>
       </c>
       <c r="D97">
-        <v>0.8748929592040036</v>
+        <v>0.09667143957713079</v>
       </c>
       <c r="E97">
-        <v>-0.1404510168913616</v>
+        <v>-0.9303951505690489</v>
       </c>
       <c r="F97">
-        <v>-0.07784032440055316</v>
+        <v>0.04681807268323689</v>
       </c>
       <c r="G97">
-        <v>-0.1226455643784347</v>
+        <v>0.1220802493711586</v>
       </c>
       <c r="H97">
-        <v>-0.009194398956795836</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.01829902914163411</v>
+      </c>
+      <c r="I97">
+        <v>0.03624239221738709</v>
+      </c>
+      <c r="J97">
+        <v>-0.06560633651465825</v>
+      </c>
+      <c r="K97">
+        <v>0.04264289391776188</v>
+      </c>
+      <c r="L97">
+        <v>-0.006662593842098075</v>
+      </c>
+      <c r="M97">
+        <v>0.04819913415812507</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.282892619488905</v>
+        <v>-0.2667300419135031</v>
       </c>
       <c r="C98">
-        <v>0.1085293935882047</v>
+        <v>0.1131492111713483</v>
       </c>
       <c r="D98">
-        <v>-0.1826210718974355</v>
+        <v>-0.002045303603162064</v>
       </c>
       <c r="E98">
-        <v>-0.305585377078532</v>
+        <v>0.01896297592762454</v>
       </c>
       <c r="F98">
-        <v>-0.5039120977067367</v>
+        <v>-0.4318157708384204</v>
       </c>
       <c r="G98">
-        <v>-0.1164358245863993</v>
+        <v>0.2165706017097258</v>
       </c>
       <c r="H98">
-        <v>-0.3128320988128502</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1099364149235341</v>
+      </c>
+      <c r="I98">
+        <v>-0.2591725542762064</v>
+      </c>
+      <c r="J98">
+        <v>-0.03090051915008457</v>
+      </c>
+      <c r="K98">
+        <v>-0.01546869204021605</v>
+      </c>
+      <c r="L98">
+        <v>0.6257612237921018</v>
+      </c>
+      <c r="M98">
+        <v>0.05933219678834376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05713955091955655</v>
+        <v>-0.06664263016228181</v>
       </c>
       <c r="C99">
-        <v>0.05513321312877899</v>
+        <v>0.05776291312269121</v>
       </c>
       <c r="D99">
-        <v>-0.06380153567161331</v>
+        <v>0.007962508156971642</v>
       </c>
       <c r="E99">
-        <v>0.007186653507308662</v>
+        <v>0.04876553216506854</v>
       </c>
       <c r="F99">
-        <v>0.002777743226457127</v>
+        <v>0.002322998767052413</v>
       </c>
       <c r="G99">
-        <v>-0.05387205153044928</v>
+        <v>-0.01419652334412828</v>
       </c>
       <c r="H99">
-        <v>-0.08761071511447965</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01601816473743577</v>
+      </c>
+      <c r="I99">
+        <v>-0.0366867794783108</v>
+      </c>
+      <c r="J99">
+        <v>-0.07467502137839015</v>
+      </c>
+      <c r="K99">
+        <v>0.00279954672054145</v>
+      </c>
+      <c r="L99">
+        <v>0.007763791133437146</v>
+      </c>
+      <c r="M99">
+        <v>0.1055137362339351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05321457083052772</v>
+        <v>-0.04368351495757491</v>
       </c>
       <c r="C101">
-        <v>0.0198429555857746</v>
+        <v>0.02881584586216845</v>
       </c>
       <c r="D101">
-        <v>-0.009540442955276273</v>
+        <v>-0.003838906153920914</v>
       </c>
       <c r="E101">
-        <v>0.02408530496731306</v>
+        <v>0.01989994606706782</v>
       </c>
       <c r="F101">
-        <v>-0.008878619081166864</v>
+        <v>0.0583365464789533</v>
       </c>
       <c r="G101">
-        <v>0.009897695050650338</v>
+        <v>-0.03238449484117241</v>
       </c>
       <c r="H101">
-        <v>0.0200252810125041</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.049515180855325</v>
+      </c>
+      <c r="I101">
+        <v>0.004719497374780607</v>
+      </c>
+      <c r="J101">
+        <v>0.04109882356944002</v>
+      </c>
+      <c r="K101">
+        <v>-0.0322585935610978</v>
+      </c>
+      <c r="L101">
+        <v>0.03635092326122868</v>
+      </c>
+      <c r="M101">
+        <v>-0.006047730928065022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
